--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>0.1692751146643716</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.795346557863981</v>
+        <v>-1.789953968354405</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04276070459897536</v>
+        <v>0.04346114310795417</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07907152342794048</v>
+        <v>-0.08055424944020573</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1845850004088994</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.838092195141144</v>
+        <v>-1.835617050072899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02052925852972445</v>
+        <v>0.02214892420554285</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06254589667340456</v>
+        <v>-0.0624026609333662</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2176831737221666</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.93895297940541</v>
+        <v>-1.936680095794252</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01787680803001234</v>
+        <v>-0.01909195079165647</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06684296887455543</v>
+        <v>-0.0688057707188174</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2583041033511488</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.982901954300807</v>
+        <v>-1.977898147514192</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03750167843438931</v>
+        <v>-0.03815647038885039</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06258052509407316</v>
+        <v>-0.06393418153839177</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2953029953044435</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.940813470006787</v>
+        <v>-1.932526259333139</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02129557756147743</v>
+        <v>-0.02036848029903133</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07926512777986046</v>
+        <v>-0.08185124119615748</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3191779284394708</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.813454073835424</v>
+        <v>-1.803608584231688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01982409796338174</v>
+        <v>0.02081730402892247</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0688372511012434</v>
+        <v>-0.0695109312851601</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3255970809790931</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.543212304918431</v>
+        <v>-1.531181289764769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648142927935346</v>
+        <v>0.05648457731759605</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06446620000139139</v>
+        <v>-0.06471804306079951</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3165642760418434</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.138350976633074</v>
+        <v>-1.123090074242503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04952426476320441</v>
+        <v>0.04779756578713756</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04939811495317991</v>
+        <v>-0.04927376744259716</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3027531920309485</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6326194199687237</v>
+        <v>-0.6167029386141312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04347216124180327</v>
+        <v>0.04108594825391143</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02079189144266121</v>
+        <v>-0.02166704607410439</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2993520038442681</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1253587037280298</v>
+        <v>-0.1098577634214606</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05162377799069908</v>
+        <v>-0.05459867412995738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01777944712481214</v>
+        <v>0.01680827732696962</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3236041342721841</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4600866903059119</v>
+        <v>0.4767114802650898</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2311658430809833</v>
+        <v>-0.2317749884809267</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07834455487422001</v>
+        <v>0.07682562642216484</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3859801515109487</v>
       </c>
       <c r="E13" t="n">
-        <v>1.041601758593966</v>
+        <v>1.060708776707435</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5129483201953537</v>
+        <v>-0.5104298896012727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1693260081236424</v>
+        <v>0.1674261670442324</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4942333966586591</v>
       </c>
       <c r="E14" t="n">
-        <v>1.631352094924665</v>
+        <v>1.652628111387286</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.823185914984598</v>
+        <v>-0.8189171751276305</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2731734936705765</v>
+        <v>0.2688134607045736</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6438103260367587</v>
       </c>
       <c r="E15" t="n">
-        <v>2.315782829439843</v>
+        <v>2.341330733797674</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.160528906052201</v>
+        <v>-1.155657316871775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3954653352809122</v>
+        <v>0.3916766712559414</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8198941556907359</v>
       </c>
       <c r="E16" t="n">
-        <v>2.859453755994465</v>
+        <v>2.888178030939081</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.509684123615604</v>
+        <v>-1.504626013169305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5232174492230399</v>
+        <v>0.521202704747775</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.004164898857912</v>
       </c>
       <c r="E17" t="n">
-        <v>3.35783385635278</v>
+        <v>3.386644702349068</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.850944061266564</v>
+        <v>-1.845873358667294</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6432080748780339</v>
+        <v>0.6389031325812765</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.184664848889703</v>
       </c>
       <c r="E18" t="n">
-        <v>3.769301342890235</v>
+        <v>3.795211271645966</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.160864491202866</v>
+        <v>-2.152561540338005</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7980522059359891</v>
+        <v>0.7951103641982781</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.354340368479973</v>
       </c>
       <c r="E19" t="n">
-        <v>4.116465426265194</v>
+        <v>4.140338574277961</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.514332521158634</v>
+        <v>-2.50450198473655</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9416436742957657</v>
+        <v>0.938426379211827</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.504951527130615</v>
       </c>
       <c r="E20" t="n">
-        <v>4.428458052374689</v>
+        <v>4.453609303913952</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.836050224409085</v>
+        <v>-2.823705192440723</v>
       </c>
       <c r="G20" t="n">
-        <v>1.062652690322241</v>
+        <v>1.057197140047813</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.632635291833893</v>
       </c>
       <c r="E21" t="n">
-        <v>4.644802258540104</v>
+        <v>4.665469129602782</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.108708112677275</v>
+        <v>-3.094842578237737</v>
       </c>
       <c r="G21" t="n">
-        <v>1.171126218066678</v>
+        <v>1.163948690873547</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.731982712403872</v>
       </c>
       <c r="E22" t="n">
-        <v>4.812569086583938</v>
+        <v>4.833061241524152</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.325533181684248</v>
+        <v>-3.308223693407304</v>
       </c>
       <c r="G22" t="n">
-        <v>1.256005199182818</v>
+        <v>1.2468113534953</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.804353625829005</v>
       </c>
       <c r="E23" t="n">
-        <v>4.9249461817492</v>
+        <v>4.944434112490024</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.465401307812588</v>
+        <v>-3.448072144296628</v>
       </c>
       <c r="G23" t="n">
-        <v>1.332954271965844</v>
+        <v>1.322784534423121</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.853395172019924</v>
       </c>
       <c r="E24" t="n">
-        <v>4.994719301358217</v>
+        <v>5.014296951188955</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.580913062057921</v>
+        <v>-3.562789018885704</v>
       </c>
       <c r="G24" t="n">
-        <v>1.394251298606657</v>
+        <v>1.383516488199386</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.886485093243231</v>
       </c>
       <c r="E25" t="n">
-        <v>4.987973055404322</v>
+        <v>5.005386428943272</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.682542754662942</v>
+        <v>-3.66456981732637</v>
       </c>
       <c r="G25" t="n">
-        <v>1.433433356593195</v>
+        <v>1.422600957000404</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.910198066729678</v>
       </c>
       <c r="E26" t="n">
-        <v>4.975950697355827</v>
+        <v>4.991218682832445</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.701056367567681</v>
+        <v>-3.683996361321463</v>
       </c>
       <c r="G26" t="n">
-        <v>1.458079347994521</v>
+        <v>1.446409570229198</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.926878295724663</v>
       </c>
       <c r="E27" t="n">
-        <v>4.933219226250757</v>
+        <v>4.945938874769988</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.656257422346782</v>
+        <v>-3.642215597765658</v>
       </c>
       <c r="G27" t="n">
-        <v>1.454008934546838</v>
+        <v>1.442827102709118</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.935691553595971</v>
       </c>
       <c r="E28" t="n">
-        <v>4.78240301012421</v>
+        <v>4.794801558742695</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.587554635740249</v>
+        <v>-3.574743694111983</v>
       </c>
       <c r="G28" t="n">
-        <v>1.406366523783309</v>
+        <v>1.394364627983391</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.931332825809833</v>
       </c>
       <c r="E29" t="n">
-        <v>4.653799351837459</v>
+        <v>4.665056736593002</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.498517883115194</v>
+        <v>-3.486256274160261</v>
       </c>
       <c r="G29" t="n">
-        <v>1.362201121258733</v>
+        <v>1.350942162484069</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.914359850943954</v>
       </c>
       <c r="E30" t="n">
-        <v>4.501387080321913</v>
+        <v>4.509779750276688</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.369723768514765</v>
+        <v>-3.354551011194987</v>
       </c>
       <c r="G30" t="n">
-        <v>1.309712305620718</v>
+        <v>1.298766576651194</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.884389789980516</v>
       </c>
       <c r="E31" t="n">
-        <v>4.345733903435609</v>
+        <v>4.352659587569332</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.247978111539521</v>
+        <v>-3.232081305423944</v>
       </c>
       <c r="G31" t="n">
-        <v>1.24552852791144</v>
+        <v>1.237024102599053</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.845721049338726</v>
       </c>
       <c r="E32" t="n">
-        <v>4.20881942418839</v>
+        <v>4.217032655963338</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.108693946505183</v>
+        <v>-3.091859024993312</v>
       </c>
       <c r="G32" t="n">
-        <v>1.175553933854897</v>
+        <v>1.166284535249557</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.798853769175326</v>
       </c>
       <c r="E33" t="n">
-        <v>4.003937225264286</v>
+        <v>4.011424834224314</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.984161488675676</v>
+        <v>-2.965247287904567</v>
       </c>
       <c r="G33" t="n">
-        <v>1.10611922835696</v>
+        <v>1.097567582470933</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.744568862368</v>
       </c>
       <c r="E34" t="n">
-        <v>3.748541604699401</v>
+        <v>3.756690301690374</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.906287679658885</v>
+        <v>-2.888199051916898</v>
       </c>
       <c r="G34" t="n">
-        <v>1.047346928386713</v>
+        <v>1.039083327999885</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.682578536821367</v>
       </c>
       <c r="E35" t="n">
-        <v>3.507524648807597</v>
+        <v>3.515572608574807</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.813037277846108</v>
+        <v>-2.792911082351597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9504912357765968</v>
+        <v>0.9406441721537397</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.612269591569926</v>
       </c>
       <c r="E36" t="n">
-        <v>3.24674273480962</v>
+        <v>3.252749191776503</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.749956100531301</v>
+        <v>-2.732809523233412</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8787836466675014</v>
+        <v>0.8693159216528777</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.534313596827868</v>
       </c>
       <c r="E37" t="n">
-        <v>3.000449666823216</v>
+        <v>3.008049031140856</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.651981280325939</v>
+        <v>-2.635210893598042</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8272093361389631</v>
+        <v>0.8197170051215718</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.448656611074347</v>
       </c>
       <c r="E38" t="n">
-        <v>2.711211061131245</v>
+        <v>2.716065336101336</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.565644757503476</v>
+        <v>-2.551311739384912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7598145594222315</v>
+        <v>0.7515336448250686</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.359319032683667</v>
       </c>
       <c r="E39" t="n">
-        <v>2.455173240764868</v>
+        <v>2.459128750816697</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.449729267353529</v>
+        <v>-2.433095820289184</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6903184671785635</v>
+        <v>0.6820643109064627</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.268238537250244</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219369436202812</v>
+        <v>2.222786631715156</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.352404517045265</v>
+        <v>-2.334759762695484</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6392761751130248</v>
+        <v>0.6328337148495411</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.179807599928299</v>
       </c>
       <c r="E41" t="n">
-        <v>2.018774865365131</v>
+        <v>2.022579269581315</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.258337199308533</v>
+        <v>-2.241854858079833</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5747917597515783</v>
+        <v>0.5685916984327748</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.09536470871981</v>
       </c>
       <c r="E42" t="n">
-        <v>1.762600105335201</v>
+        <v>1.763451649679825</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.161069113688635</v>
+        <v>-2.145079440444902</v>
       </c>
       <c r="G42" t="n">
-        <v>0.505503438031922</v>
+        <v>0.4998794677115146</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.016157084638183</v>
       </c>
       <c r="E43" t="n">
-        <v>1.545701844439088</v>
+        <v>1.546619497586806</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.07918391694121</v>
+        <v>-2.062979390087419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4524149211086924</v>
+        <v>0.4470758482492405</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9414035649420133</v>
       </c>
       <c r="E44" t="n">
-        <v>1.312761180658678</v>
+        <v>1.311300490914111</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.990614647995181</v>
+        <v>-1.97443451843777</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4076797236622055</v>
+        <v>0.4046182564712757</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8702515864849107</v>
       </c>
       <c r="E45" t="n">
-        <v>1.102665830404826</v>
+        <v>1.10161753367004</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.912844724240396</v>
+        <v>-1.897501185845957</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3492663000516157</v>
+        <v>0.3467683317061115</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8017523779695626</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9016604405764855</v>
+        <v>0.899552828973064</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.846144089956158</v>
+        <v>-1.830993368904078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2796348421635159</v>
+        <v>0.2767937376495681</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7355028653309982</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7399488640922955</v>
+        <v>0.7370133184310698</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.800376335966098</v>
+        <v>-1.786792550949273</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2427886285529881</v>
+        <v>0.2409848026399775</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6728756700677538</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5801339806492728</v>
+        <v>0.5777493416805022</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.732703744874456</v>
+        <v>-1.718277072618175</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1998336467326923</v>
+        <v>0.1992024650650507</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.613228699180745</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4513666243739061</v>
+        <v>0.4481335890987545</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.684908654256161</v>
+        <v>-1.670786554699851</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1436191278345595</v>
+        <v>0.1412077305407269</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5586521194171225</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3552853491714695</v>
+        <v>0.3550083218061206</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.619916617728095</v>
+        <v>-1.604281885796215</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1124834555961106</v>
+        <v>0.1116287632132444</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5078014644816901</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2233542144622885</v>
+        <v>0.2222980476318957</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.571045685040391</v>
+        <v>-1.557052655052027</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07507374314015718</v>
+        <v>0.0739624856405189</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4618235551124489</v>
       </c>
       <c r="E52" t="n">
-        <v>0.116725437128016</v>
+        <v>0.1157951918273273</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.524726237348315</v>
+        <v>-1.509190668621077</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04565532576304732</v>
+        <v>0.04523506265766004</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.419564028535655</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0224873383166225</v>
+        <v>0.0197359528925889</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.510165773466723</v>
+        <v>-1.497160440476976</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006495304044207514</v>
+        <v>0.00618994433467518</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3816385310898286</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07060959663182798</v>
+        <v>-0.07414484357826932</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.491904790630953</v>
+        <v>-1.478579144750021</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01484839524062981</v>
+        <v>-0.01548429896563529</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3484882654825821</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1424273670794144</v>
+        <v>-0.1458130822093322</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.477979443464805</v>
+        <v>-1.464087937709766</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04468707572312695</v>
+        <v>-0.04537492207913535</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3193181328208334</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2147283613972402</v>
+        <v>-0.2200863224861478</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.484158255525471</v>
+        <v>-1.470587849671178</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07441085280976914</v>
+        <v>-0.07437622438910052</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2951035812892892</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2683520448217121</v>
+        <v>-0.2727136518068363</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.479658134857673</v>
+        <v>-1.465547053435212</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1124879493731541</v>
+        <v>-0.1150756368085724</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2738174635569038</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.355190679743871</v>
+        <v>-0.360948441689589</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.47896477943474</v>
+        <v>-1.464912723729328</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1313132180639103</v>
+        <v>-0.133143802301983</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2561144079326703</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4306208240748426</v>
+        <v>-0.4370743024721754</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.501668431240381</v>
+        <v>-1.489176228484178</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1543899124012997</v>
+        <v>-0.1559418952549022</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.24064334719247</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4943512842771862</v>
+        <v>-0.4982595737553758</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.517252007550818</v>
+        <v>-1.505267425961235</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1893661912957223</v>
+        <v>-0.1922844227466138</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.227211118726817</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5678359409742301</v>
+        <v>-0.572562720395496</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.547636872668407</v>
+        <v>-1.536451892792444</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2107240567526513</v>
+        <v>-0.2132125809834277</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2146430257711389</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6235609399256383</v>
+        <v>-0.6287331667582323</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.573104502051052</v>
+        <v>-1.56016606487396</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2220207919862263</v>
+        <v>-0.2237648051726275</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.201236495520265</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6770177773232523</v>
+        <v>-0.6827818353454553</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.619288584098696</v>
+        <v>-1.607055307487947</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2564807926088623</v>
+        <v>-0.2587694164112335</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1868301988855199</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7345308619964581</v>
+        <v>-0.7411606305353766</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.662480455796747</v>
+        <v>-1.65111997278876</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2758097474184347</v>
+        <v>-0.277020168122715</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1704375023225735</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.813685135568427</v>
+        <v>-0.8221171560012348</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.707003160661859</v>
+        <v>-1.695583651936822</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3058986969412187</v>
+        <v>-0.3089444239409355</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1529282537421925</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8947967019177334</v>
+        <v>-0.9067301278858746</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.746020733650221</v>
+        <v>-1.734591780810457</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3238944575550495</v>
+        <v>-0.3257832805006103</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1343628411573599</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9470966352611915</v>
+        <v>-0.9587758571412425</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.774147668338304</v>
+        <v>-1.761623198190114</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3483090681455444</v>
+        <v>-0.3506275983112203</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1156457181101968</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9961493671574061</v>
+        <v>-1.012112282076077</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.806263167479762</v>
+        <v>-1.793048489946882</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3747872178040646</v>
+        <v>-0.3780690476719765</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0980232826528222</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.022042768712363</v>
+        <v>-1.039717429425449</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.83860768640337</v>
+        <v>-1.822310292421423</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.392639742677857</v>
+        <v>-0.3955233457080798</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08181562985249261</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.019479478573325</v>
+        <v>-1.037095900578922</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.872463263683426</v>
+        <v>-1.857298376459255</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4192721462102647</v>
+        <v>-0.4239029104651312</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.06725397843210187</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.019060002477498</v>
+        <v>-1.033775507242538</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.897283184197656</v>
+        <v>-1.881623267959836</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4290593971065123</v>
+        <v>-0.4338522853308729</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.05464924513154296</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.026180864982263</v>
+        <v>-1.043463594934144</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.941773621670781</v>
+        <v>-1.926713406718176</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4336665510745594</v>
+        <v>-0.4382375026028166</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.04418990797442998</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9913572659426061</v>
+        <v>-1.009721347030821</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.958322071702576</v>
+        <v>-1.940796155796453</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.445851033092548</v>
+        <v>-0.4502992111293438</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.03588840359996133</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9358022610562984</v>
+        <v>-0.9528496751495454</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.99895144027115</v>
+        <v>-1.982691035738553</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4485520499047</v>
+        <v>-0.4542468510855659</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.02793357060227811</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.877930300023436</v>
+        <v>-0.8955065845414401</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.022668760390908</v>
+        <v>-2.005541071322475</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4547647033764738</v>
+        <v>-0.460173033077263</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.01933143756626337</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.786542749840718</v>
+        <v>-0.8032824431957508</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.059348914984139</v>
+        <v>-2.044746739595833</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4451631867365397</v>
+        <v>-0.4498112652017406</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.009007917580551562</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6956525897003311</v>
+        <v>-0.7143299005936851</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.057070522306056</v>
+        <v>-2.044248562543941</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4289444937106573</v>
+        <v>-0.4326025141485602</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.003133732081775526</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5829921710932344</v>
+        <v>-0.601107557160284</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.065695360081223</v>
+        <v>-2.054886570775252</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4209028300199321</v>
+        <v>-0.4245419622283793</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.01612253839302662</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4250613885384086</v>
+        <v>-0.4429249315460501</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.051180542754149</v>
+        <v>-2.041538101617061</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3950889164306008</v>
+        <v>-0.3983880605088471</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.02909477534570449</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2874889692984858</v>
+        <v>-0.3065377487044668</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.018146603455412</v>
+        <v>-2.008533281672068</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3763454967341523</v>
+        <v>-0.3800145353059042</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.04112955573351661</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.08471595599692475</v>
+        <v>-0.1026707921136017</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.981553806923413</v>
+        <v>-1.97057423654278</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3514618284455097</v>
+        <v>-0.3559210246161545</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05200644203214175</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0897656376183778</v>
+        <v>0.07308575698995441</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.93762214623835</v>
+        <v>-1.926312031842244</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3357814499591122</v>
+        <v>-0.3424726052437615</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06032068797676055</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2931477963198822</v>
+        <v>0.2749773195835871</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.882117509963924</v>
+        <v>-1.872009159166931</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2938354143955702</v>
+        <v>-0.2990926382607145</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0660233864497492</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5114327680618617</v>
+        <v>0.4969313298973184</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.804181527191842</v>
+        <v>-1.79570779525232</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.266299523887536</v>
+        <v>-0.2730016973060343</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06847415215072801</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6979020913049903</v>
+        <v>0.6851399442694842</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.688971984617799</v>
+        <v>-1.680799677340006</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2437816063382084</v>
+        <v>-0.2519287293100607</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06799798304919089</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9094109107297702</v>
+        <v>0.8952683489248835</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.602596111317302</v>
+        <v>-1.596521971528203</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2097875153754774</v>
+        <v>-0.2178464932765369</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06615681141664614</v>
       </c>
       <c r="E87" t="n">
-        <v>1.124776077001737</v>
+        <v>1.112750570914999</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.487540035607586</v>
+        <v>-1.484298343227267</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1682098002863197</v>
+        <v>-0.1745751336128597</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06480471957823122</v>
       </c>
       <c r="E88" t="n">
-        <v>1.299265540712646</v>
+        <v>1.289731706894927</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.328934785859283</v>
+        <v>-1.324038012372916</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1434977000818989</v>
+        <v>-0.1509018860284974</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06666672007361006</v>
       </c>
       <c r="E89" t="n">
-        <v>1.434996357580647</v>
+        <v>1.426751645423274</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.146761747807744</v>
+        <v>-1.141530495258102</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1157367248395187</v>
+        <v>-0.123082672078629</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07338967858938687</v>
       </c>
       <c r="E90" t="n">
-        <v>1.551605990163087</v>
+        <v>1.544050698380844</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9625078564778464</v>
+        <v>-0.957885749328147</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08870924250766458</v>
+        <v>-0.09496596851483483</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08620352387406754</v>
       </c>
       <c r="E91" t="n">
-        <v>1.62380624725715</v>
+        <v>1.614256673248218</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7697463917973184</v>
+        <v>-0.76626308748188</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09268678882719142</v>
+        <v>-0.0992787809071987</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1055041854417052</v>
       </c>
       <c r="E92" t="n">
-        <v>1.692367372142765</v>
+        <v>1.686400265653914</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5709776831403462</v>
+        <v>-0.5701528971207847</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08554231603560761</v>
+        <v>-0.09167312051307379</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1308335766085038</v>
       </c>
       <c r="E93" t="n">
-        <v>1.705250718650611</v>
+        <v>1.70135344730627</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003099378559553</v>
+        <v>-0.4003414182383813</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08775381290103507</v>
+        <v>-0.09267734471246362</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1613990464945038</v>
       </c>
       <c r="E94" t="n">
-        <v>1.693113457206261</v>
+        <v>1.689803294994166</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2162252535815972</v>
+        <v>-0.2167053294135939</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1032342909590273</v>
+        <v>-0.1062469635571968</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1952868611093474</v>
       </c>
       <c r="E95" t="n">
-        <v>1.661872325686685</v>
+        <v>1.659174456912776</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07293127483574649</v>
+        <v>-0.07221037407819078</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1098168389243068</v>
+        <v>-0.1133788441958103</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2289405271170578</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606597496203969</v>
+        <v>1.606838321129528</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02860082858375437</v>
+        <v>0.02632322291523228</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.119031146860401</v>
+        <v>-0.1208349727734116</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2594006905895654</v>
       </c>
       <c r="E97" t="n">
-        <v>1.519162308034837</v>
+        <v>1.52238432517614</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09098550243738583</v>
+        <v>0.08842772136527222</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1389645250125529</v>
+        <v>-0.1397987551468423</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2834826069706955</v>
       </c>
       <c r="E98" t="n">
-        <v>1.381948765154571</v>
+        <v>1.38277040313589</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1406788601159698</v>
+        <v>0.1387774450174386</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1477207933843487</v>
+        <v>-0.1486840930865847</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2991440627585917</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254355627143695</v>
+        <v>1.255241799908987</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1490888442810794</v>
+        <v>0.1456622046540078</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1618098385391111</v>
+        <v>-0.1623560231742025</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3007742178652994</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124821723556255</v>
+        <v>1.125100324940725</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1642309082279921</v>
+        <v>0.1594679263669362</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1689511632924524</v>
+        <v>-0.1694863297936946</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2915269105080667</v>
       </c>
       <c r="E101" t="n">
-        <v>1.016330881601483</v>
+        <v>1.018030822252488</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1771016625828678</v>
+        <v>0.1729305119114209</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.192976991159986</v>
+        <v>-0.1936428012482962</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2705465130640515</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8988870188847538</v>
+        <v>0.8999132793518418</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1688884308079208</v>
+        <v>0.1624837470033483</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1919633228458684</v>
+        <v>-0.1909638207038425</v>
       </c>
     </row>
   </sheetData>
